--- a/整合/input_param.xlsx
+++ b/整合/input_param.xlsx
@@ -121,10 +121,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/s2b20200317waterRrs_FAI01.tif</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>/s2b20200317waterRrs_NDVI.tif</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>/shixi/github_mycellar/水质参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/after_12.tif</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
   <dimension ref="C2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>25</v>

--- a/整合/input_param.xlsx
+++ b/整合/input_param.xlsx
@@ -99,9 +99,6 @@
     <t>包含所需水质参数的excel表格文件完整路径</t>
   </si>
   <si>
-    <t>s2b_20200216_TarR</t>
-  </si>
-  <si>
     <t>将在程序同目录下生成该名字的excel表格，包含每个点相应评价标准结果</t>
   </si>
   <si>
@@ -118,10 +115,6 @@
   </si>
   <si>
     <t>/s2b20200317waterRrs_TP.tif</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s2b20200317waterRrs_NDVI.tif</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -153,7 +146,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/after_12.tif</t>
+    <t>/s2b20200317waterRrs_NDVI.tif</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s2b20200317waterRrs_FAI.tif</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2b_20200317_TarR</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +733,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -775,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
@@ -786,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -797,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
@@ -808,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -819,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
@@ -830,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -841,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -864,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -881,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="16.5" thickBot="1">
@@ -919,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>25</v>
@@ -953,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="16.5" thickBot="1">
